--- a/data/processed/data_w_SErole_diff.xlsx
+++ b/data/processed/data_w_SErole_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Documents\GitHub\CSE-review\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D1E03-3FF4-44E0-B898-FE1A64D4C7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E917F2-BC0A-48AD-AD42-6BEA3FE07A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{070D0CDE-2EB4-4506-9F12-DF91A72CDAC4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="435">
   <si>
     <t>id</t>
   </si>
@@ -1290,9 +1290,6 @@
     <t>cognitive; cognitive</t>
   </si>
   <si>
-    <t>mastery; persuasion; vicarious experience</t>
-  </si>
-  <si>
     <t xml:space="preserve">cognitive; cognitive </t>
   </si>
   <si>
@@ -1312,6 +1309,42 @@
   </si>
   <si>
     <t xml:space="preserve">cognitive </t>
+  </si>
+  <si>
+    <t>mastery; mastery, persuasion</t>
+  </si>
+  <si>
+    <t>persuasion, vicarious experience; other; other; other</t>
+  </si>
+  <si>
+    <t>mastery, vicarious experience; other</t>
+  </si>
+  <si>
+    <t>mastery, persuasion</t>
+  </si>
+  <si>
+    <t>mastery, vicarious experience, persuasion</t>
+  </si>
+  <si>
+    <t>mastery, emotional arousal</t>
+  </si>
+  <si>
+    <t>other; other; mastery; vicarious experience, persuasion</t>
+  </si>
+  <si>
+    <t>mastery; persuasion, vicarious experience</t>
+  </si>
+  <si>
+    <t>persuasion; persuasion; vicarious experience; persuasion, vicarious experience</t>
+  </si>
+  <si>
+    <t>emotional arousal, mastery</t>
+  </si>
+  <si>
+    <t>mastery, vicarious experience; persuasion</t>
+  </si>
+  <si>
+    <t>mastery, persuasion; mastery, persuasion</t>
   </si>
 </sst>
 </file>
@@ -2647,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AF35B6-9A1A-477C-AA48-58EE6B377070}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="D129" zoomScale="78" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2729,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -3195,7 +3228,7 @@
         <v>135</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3221,7 +3254,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>339</v>
+        <v>424</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>413</v>
@@ -3574,7 +3607,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>340</v>
+        <v>425</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>60</v>
@@ -4256,7 +4289,7 @@
         <v>229</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -4336,7 +4369,7 @@
         <v>39</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>346</v>
+        <v>426</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
@@ -4552,7 +4585,7 @@
         <v>39</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1">
@@ -4606,7 +4639,7 @@
         <v>49</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1">
@@ -4903,7 +4936,7 @@
         <v>53</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>415</v>
@@ -4959,7 +4992,7 @@
         <v>55</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1">
@@ -4989,7 +5022,7 @@
         <v>350</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -5044,10 +5077,10 @@
         <v>62</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -5210,7 +5243,7 @@
         <v>353</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
@@ -5698,7 +5731,7 @@
         <v>80</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1">
@@ -6022,7 +6055,7 @@
         <v>357</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1">
@@ -6265,7 +6298,7 @@
         <v>39</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1">
@@ -6319,7 +6352,7 @@
         <v>89</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1">
@@ -6376,7 +6409,7 @@
         <v>360</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -6429,7 +6462,7 @@
         <v>96</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1">
@@ -7002,7 +7035,7 @@
         <v>39</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1">
@@ -7382,7 +7415,7 @@
         <v>68</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1">
